--- a/biology/Zoologie/Echinidae/Echinidae.xlsx
+++ b/biology/Zoologie/Echinidae/Echinidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Echinidae sont une famille d'oursins réguliers de l'ordre des Echinoida.
 </t>
@@ -511,10 +523,12 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le test (coquille) est globulaire, avec la bouche (« péristome ») située au centre de la face inférieure (« face orale »), et l'anus (« périprocte ») à l'opposé (« face aborale »), au sommet de l'« apex ». Les piquants (« radioles ») sont fins, disposés sur des mamelons non perforés. La mâchoire (« Lanterne d'Aristote ») est pourvue de cinq dents carénées à épiphyses soudées (type « camarodonte »)[2]. Les ambulacres sont trigéminés (sauf chez un genre quadrigéminé), et les tubercules primaires sont relativement petits, avec des interambulacres généralement très granulés. Les encoches buccales sont très réduites. Les pédicellaires sont globuleux[3].
-Cette famille est apparue au Miocène, et est principalement répandue dans l'Atlantique et en Antarctique[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le test (coquille) est globulaire, avec la bouche (« péristome ») située au centre de la face inférieure (« face orale »), et l'anus (« périprocte ») à l'opposé (« face aborale »), au sommet de l'« apex ». Les piquants (« radioles ») sont fins, disposés sur des mamelons non perforés. La mâchoire (« Lanterne d'Aristote ») est pourvue de cinq dents carénées à épiphyses soudées (type « camarodonte »). Les ambulacres sont trigéminés (sauf chez un genre quadrigéminé), et les tubercules primaires sont relativement petits, avec des interambulacres généralement très granulés. Les encoches buccales sont très réduites. Les pédicellaires sont globuleux.
+Cette famille est apparue au Miocène, et est principalement répandue dans l'Atlantique et en Antarctique.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Dermechinus horridus
